--- a/项目总结-06-26/性能测试.xlsx
+++ b/项目总结-06-26/性能测试.xlsx
@@ -1118,17 +1118,17 @@
   <sheetPr/>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="40.4722222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="4:5">
